--- a/Resources/Traffic Analysis Plan.xlsx
+++ b/Resources/Traffic Analysis Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhennessy\Desktop\Arizona_Accidents_Analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298992FC-4EE0-40DE-A7CE-168FE69C50D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91DAC02-9D5F-4390-9094-FF86869FAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75B8526F-A798-4257-AFF8-25C696ABB689}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Which area is the worst in AZ for driving?</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Person 4: Michael</t>
+  </si>
+  <si>
+    <t>Data/Soultions Reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2013, the Highway Safety Improvement Plan (HSIP) was put into place to gather funds to improve the roadways. Looking at the data, as funding increase we did see a small decrease in the total # of accidents. </t>
   </si>
 </sst>
 </file>
@@ -164,12 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,16 +509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AAC463-BA95-4EE7-ACA2-929E7ED08649}">
-  <dimension ref="B2:C34"/>
+  <dimension ref="B2:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -596,15 +602,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -612,63 +615,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" t="s">
         <v>16</v>
